--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06026616088716091</v>
+        <v>0.04599563196556224</v>
       </c>
       <c r="H2" t="n">
-        <v>81.00676372316123</v>
+        <v>38.14585772397647</v>
       </c>
       <c r="I2" t="n">
-        <v>-24.1657301452286</v>
+        <v>-38.16679062961737</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06017569762759329</v>
+        <v>0.05815752889129102</v>
       </c>
       <c r="H3" t="n">
-        <v>19.24315440090393</v>
+        <v>15.24398503988901</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01382004236146316</v>
+        <v>0.04308162222390904</v>
       </c>
       <c r="H4" t="n">
-        <v>-128.3920061312167</v>
+        <v>-11.49276895599284</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01632848842690312</v>
+        <v>0.002850564834563522</v>
       </c>
       <c r="H5" t="n">
-        <v>-123.110315638075</v>
+        <v>-95.96548980216572</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1140350396471198</v>
+        <v>-0.1225407985429096</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.052598139605673</v>
+        <v>-4.178611042672927</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09980980726175571</v>
+        <v>-0.0851732567400029</v>
       </c>
       <c r="H7" t="n">
-        <v>-20.17352873384327</v>
+        <v>31.87963469391404</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2340981320419178</v>
+        <v>-0.2387438759557693</v>
       </c>
       <c r="H8" t="n">
-        <v>17.53169608500845</v>
+        <v>-19.8641459726214</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2629283237293188</v>
+        <v>-0.3046998927184322</v>
       </c>
       <c r="H9" t="n">
-        <v>-12.95980100359981</v>
+        <v>-0.868323808648648</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01965879923779912</v>
+        <v>-0.01672526387665524</v>
       </c>
       <c r="H10" t="n">
-        <v>-1644.634790464776</v>
+        <v>-1414.140510368105</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04100603104831798</v>
+        <v>0.01831867858298696</v>
       </c>
       <c r="H11" t="n">
-        <v>-299.4128497678299</v>
+        <v>189.0839665977422</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1998870945947239</v>
+        <v>0.1900226489853923</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.674159116043768</v>
+        <v>-10.32914761763166</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2517006846529791</v>
+        <v>0.2325644630009688</v>
       </c>
       <c r="H13" t="n">
-        <v>7.10822880568506</v>
+        <v>-1.034962421647844</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07618513041958605</v>
+        <v>-0.09057546250880998</v>
       </c>
       <c r="H14" t="n">
-        <v>-16.3262986719656</v>
+        <v>0.5214776706301707</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06661055748559735</v>
+        <v>-0.08512714613283107</v>
       </c>
       <c r="H15" t="n">
-        <v>-6.140978606790533</v>
+        <v>-19.95021407457609</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1546816265067699</v>
+        <v>0.1887894375790652</v>
       </c>
       <c r="H16" t="n">
-        <v>-19.20659317690959</v>
+        <v>-1.391379320928736</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1650765164141614</v>
+        <v>0.187350766286823</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.05729909416582</v>
+        <v>7.753593027255913</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04191442888251363</v>
+        <v>0.03891736041782435</v>
       </c>
       <c r="H18" t="n">
-        <v>-22.70968102028062</v>
+        <v>-28.23628328627338</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0697873453763188</v>
+        <v>0.05301573480766496</v>
       </c>
       <c r="H19" t="n">
-        <v>-18.8892738619495</v>
+        <v>-38.38217052383815</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.02496730655267674</v>
+        <v>-0.03112155857827627</v>
       </c>
       <c r="H20" t="n">
-        <v>-296.146496872512</v>
+        <v>-344.4951232309485</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.06381170654130637</v>
+        <v>-0.02396442743188552</v>
       </c>
       <c r="H21" t="n">
-        <v>18.44666450967179</v>
+        <v>55.51746458381414</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07509803548537601</v>
+        <v>0.07403760399341894</v>
       </c>
       <c r="H22" t="n">
-        <v>15.05267806979431</v>
+        <v>13.42806189613998</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05149808037751362</v>
+        <v>0.0903595973489226</v>
       </c>
       <c r="H23" t="n">
-        <v>-10.70737951484342</v>
+        <v>56.67467940789406</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05329589835235975</v>
+        <v>0.03767523095279327</v>
       </c>
       <c r="H24" t="n">
-        <v>64.52342075895186</v>
+        <v>16.30271870560653</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01425790429310266</v>
+        <v>0.05919356130235929</v>
       </c>
       <c r="H25" t="n">
-        <v>-51.55666917943598</v>
+        <v>101.1188470387414</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09938426149841252</v>
+        <v>0.09369504484397112</v>
       </c>
       <c r="H26" t="n">
-        <v>-12.27555759295894</v>
+        <v>-17.29731205608081</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1006357381819965</v>
+        <v>0.1053630909197535</v>
       </c>
       <c r="H27" t="n">
-        <v>11.58482325669963</v>
+        <v>16.82650806215831</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.119836041450805</v>
+        <v>0.1285394614181637</v>
       </c>
       <c r="H28" t="n">
-        <v>2.016670416503017</v>
+        <v>9.425909870319098</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1326091965584733</v>
+        <v>0.1153349065302509</v>
       </c>
       <c r="H29" t="n">
-        <v>10.85161371511848</v>
+        <v>-3.58843248912103</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07166189923996265</v>
+        <v>0.07881122313039023</v>
       </c>
       <c r="H30" t="n">
-        <v>6.594787402762363</v>
+        <v>17.22917845653225</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07384140113928575</v>
+        <v>0.08176148935002298</v>
       </c>
       <c r="H31" t="n">
-        <v>7.612819960107664</v>
+        <v>19.1551663070107</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04631872608090896</v>
+        <v>0.04765114863968132</v>
       </c>
       <c r="H32" t="n">
-        <v>6.073687431747207</v>
+        <v>9.125044539007588</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06422231175377929</v>
+        <v>0.05472601292925366</v>
       </c>
       <c r="H33" t="n">
-        <v>18.18953026665256</v>
+        <v>0.7133126299306605</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01106614960634635</v>
+        <v>-0.009968748171535105</v>
       </c>
       <c r="H34" t="n">
-        <v>-42.05785271055073</v>
+        <v>47.80382559483382</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0235295195732898</v>
+        <v>0.02283512539432225</v>
       </c>
       <c r="H35" t="n">
-        <v>68.63813158027531</v>
+        <v>63.66134756407135</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01221715015699814</v>
+        <v>-0.01821855986303961</v>
       </c>
       <c r="H36" t="n">
-        <v>-179.0297910496289</v>
+        <v>-217.8514596856645</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01304546829426862</v>
+        <v>0.01050770562199627</v>
       </c>
       <c r="H37" t="n">
-        <v>-204.166484475722</v>
+        <v>-16.09724313001396</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04796978615796808</v>
+        <v>0.04106811338735054</v>
       </c>
       <c r="H38" t="n">
-        <v>-33.13644525278698</v>
+        <v>-42.75646677270537</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04626107538153543</v>
+        <v>0.0524457206853457</v>
       </c>
       <c r="H39" t="n">
-        <v>7.42773641305059</v>
+        <v>21.78975545446547</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03905613925947207</v>
+        <v>0.06633427153731296</v>
       </c>
       <c r="H40" t="n">
-        <v>-12.68423175080109</v>
+        <v>48.300062175929</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.08050820879704497</v>
+        <v>0.09111490214836002</v>
       </c>
       <c r="H41" t="n">
-        <v>551.3966319024145</v>
+        <v>637.2160089312318</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08042847588755271</v>
+        <v>0.06007985842396252</v>
       </c>
       <c r="H42" t="n">
-        <v>53.84477359487229</v>
+        <v>14.92163832333614</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08644060415262328</v>
+        <v>0.0605315251399902</v>
       </c>
       <c r="H43" t="n">
-        <v>73.22806185458781</v>
+        <v>21.3059404650695</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1203308516106907</v>
+        <v>0.1008047878330977</v>
       </c>
       <c r="H44" t="n">
-        <v>-8.66788563393429</v>
+        <v>-23.48832998534596</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1070049127457185</v>
+        <v>0.1017472072531099</v>
       </c>
       <c r="H45" t="n">
-        <v>-40.36287746545212</v>
+        <v>-43.29315812890521</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.03434198959203175</v>
+        <v>-0.04177109995115467</v>
       </c>
       <c r="H46" t="n">
-        <v>-21.82537426194736</v>
+        <v>4.914067468415594</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.03089916313462155</v>
+        <v>-0.04047319334807199</v>
       </c>
       <c r="H47" t="n">
-        <v>1079.552407259496</v>
+        <v>-1445.033839110868</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01013204610222657</v>
+        <v>-0.004948056114730009</v>
       </c>
       <c r="H48" t="n">
-        <v>-30.08438156917466</v>
+        <v>-134.1437849572903</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>0.007948276007884333</v>
+        <v>0.01489094951378256</v>
       </c>
       <c r="H49" t="n">
-        <v>-242.9849903768201</v>
+        <v>367.8797604433791</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1311793405516421</v>
+        <v>0.1255119757279282</v>
       </c>
       <c r="H50" t="n">
-        <v>-8.222213082284611</v>
+        <v>-12.18730544353951</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1476361684307873</v>
+        <v>0.1463968632333001</v>
       </c>
       <c r="H51" t="n">
-        <v>12.72929906781076</v>
+        <v>11.78301329157617</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08759077690369202</v>
+        <v>0.08434940901631864</v>
       </c>
       <c r="H52" t="n">
-        <v>41.38329855436706</v>
+        <v>36.15129468426858</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07029499808801828</v>
+        <v>0.07187163582054601</v>
       </c>
       <c r="H53" t="n">
-        <v>14.89559844544232</v>
+        <v>17.47257747293467</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1182449664716978</v>
+        <v>-0.1475315042842161</v>
       </c>
       <c r="H54" t="n">
-        <v>32.40288679590674</v>
+        <v>-65.19601335629204</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08838577873349403</v>
+        <v>-0.1037232182198249</v>
       </c>
       <c r="H55" t="n">
-        <v>-14.83893888609997</v>
+        <v>0.06107936907795747</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1029456875538215</v>
+        <v>0.1257906606580994</v>
       </c>
       <c r="H56" t="n">
-        <v>-33.63635761079568</v>
+        <v>-18.9094111839173</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1304304484634034</v>
+        <v>0.1414749376738706</v>
       </c>
       <c r="H57" t="n">
-        <v>-6.49215169099331</v>
+        <v>1.425833978070754</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04599563196556224</v>
+        <v>0.07184799302165265</v>
       </c>
       <c r="H2" t="n">
-        <v>38.14585772397647</v>
+        <v>115.7922871709619</v>
       </c>
       <c r="I2" t="n">
-        <v>-38.16679062961737</v>
+        <v>-26.05228116809089</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05815752889129102</v>
+        <v>0.0818965189976623</v>
       </c>
       <c r="H3" t="n">
-        <v>15.24398503988901</v>
+        <v>62.28477017700309</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04308162222390904</v>
+        <v>0.05183884358228131</v>
       </c>
       <c r="H4" t="n">
-        <v>-11.49276895599284</v>
+        <v>6.498137004805074</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002850564834563522</v>
+        <v>0.06478688950992945</v>
       </c>
       <c r="H5" t="n">
-        <v>-95.96548980216572</v>
+        <v>-8.304710966590886</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1225407985429096</v>
+        <v>-0.1312807537776846</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.178611042672927</v>
+        <v>-11.60892329590316</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0851732567400029</v>
+        <v>-0.08906417326379759</v>
       </c>
       <c r="H7" t="n">
-        <v>31.87963469391404</v>
+        <v>28.76773472529518</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2387438759557693</v>
+        <v>-0.2515529610723182</v>
       </c>
       <c r="H8" t="n">
-        <v>-19.8641459726214</v>
+        <v>-26.29509647151587</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3046998927184322</v>
+        <v>-0.2745292457524855</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.868323808648648</v>
+        <v>9.119413832236438</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01672526387665524</v>
+        <v>-0.01545721793290441</v>
       </c>
       <c r="H10" t="n">
-        <v>-1414.140510368105</v>
+        <v>-1314.507371185361</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01831867858298696</v>
+        <v>-0.00400625123721872</v>
       </c>
       <c r="H11" t="n">
-        <v>189.0839665977422</v>
+        <v>80.51754935369566</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1900226489853923</v>
+        <v>0.1845455353420903</v>
       </c>
       <c r="H12" t="n">
-        <v>-10.32914761763166</v>
+        <v>-12.91377345887938</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2325644630009688</v>
+        <v>0.2695610813176634</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.034962421647844</v>
+        <v>14.70850790368891</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09057546250880998</v>
+        <v>-0.08489834050585172</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5214776706301707</v>
+        <v>6.756628916840011</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08512714613283107</v>
+        <v>-0.05135503015642673</v>
       </c>
       <c r="H15" t="n">
-        <v>-19.95021407457609</v>
+        <v>27.63710354558749</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1887894375790652</v>
+        <v>0.176851498384611</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.391379320928736</v>
+        <v>-7.626811412953188</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.187350766286823</v>
+        <v>0.163833925633583</v>
       </c>
       <c r="H17" t="n">
-        <v>7.753593027255913</v>
+        <v>-5.771967221356085</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03891736041782435</v>
+        <v>0.03278912056430336</v>
       </c>
       <c r="H18" t="n">
-        <v>-28.23628328627338</v>
+        <v>-39.53677396910052</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05301573480766496</v>
+        <v>0.06302243051862016</v>
       </c>
       <c r="H19" t="n">
-        <v>-38.38217052383815</v>
+        <v>-26.75183337630262</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.03112155857827627</v>
+        <v>-0.0426885724783021</v>
       </c>
       <c r="H20" t="n">
-        <v>-344.4951232309485</v>
+        <v>-435.3671302285346</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.02396442743188552</v>
+        <v>-0.06369714604798588</v>
       </c>
       <c r="H21" t="n">
-        <v>55.51746458381414</v>
+        <v>-18.23401844433562</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07403760399341894</v>
+        <v>0.03077972273607421</v>
       </c>
       <c r="H22" t="n">
-        <v>13.42806189613998</v>
+        <v>-52.84444515568351</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0903595973489226</v>
+        <v>0.08226817260689274</v>
       </c>
       <c r="H23" t="n">
-        <v>56.67467940789406</v>
+        <v>42.64494250551127</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03767523095279327</v>
+        <v>0.05113778858755832</v>
       </c>
       <c r="H24" t="n">
-        <v>16.30271870560653</v>
+        <v>57.86137711478636</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05919356130235929</v>
+        <v>0.02726891083691808</v>
       </c>
       <c r="H25" t="n">
-        <v>101.1188470387414</v>
+        <v>-7.349857199677973</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09369504484397112</v>
+        <v>0.1072839914208516</v>
       </c>
       <c r="H26" t="n">
-        <v>-17.29731205608081</v>
+        <v>-5.302628558080967</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1053630909197535</v>
+        <v>0.115199409882556</v>
       </c>
       <c r="H27" t="n">
-        <v>16.82650806215831</v>
+        <v>27.73301039213472</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1285394614181637</v>
+        <v>0.114369886875572</v>
       </c>
       <c r="H28" t="n">
-        <v>9.425909870319098</v>
+        <v>-2.636678300594974</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1153349065302509</v>
+        <v>0.09093062256083853</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.58843248912103</v>
+        <v>-23.98863345390473</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07881122313039023</v>
+        <v>0.06448619159349454</v>
       </c>
       <c r="H30" t="n">
-        <v>17.22917845653225</v>
+        <v>-4.078848645849325</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08176148935002298</v>
+        <v>0.07607632420838142</v>
       </c>
       <c r="H31" t="n">
-        <v>19.1551663070107</v>
+        <v>10.86988672954262</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04765114863968132</v>
+        <v>0.07029095984367578</v>
       </c>
       <c r="H32" t="n">
-        <v>9.125044539007588</v>
+        <v>60.97207187243183</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05472601292925366</v>
+        <v>0.07029095984367578</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7133126299306605</v>
+        <v>29.35777767961299</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.009968748171535105</v>
+        <v>-0.02284102466981125</v>
       </c>
       <c r="H34" t="n">
-        <v>47.80382559483382</v>
+        <v>-19.59516749178547</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02283512539432225</v>
+        <v>0.02676306483537934</v>
       </c>
       <c r="H35" t="n">
-        <v>63.66134756407135</v>
+        <v>91.81323422869671</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01821855986303961</v>
+        <v>-0.02214539991515913</v>
       </c>
       <c r="H36" t="n">
-        <v>-217.8514596856645</v>
+        <v>-243.2532387271174</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01050770562199627</v>
+        <v>-0.008379120890288513</v>
       </c>
       <c r="H37" t="n">
-        <v>-16.09724313001396</v>
+        <v>-166.9062655667104</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04106811338735054</v>
+        <v>0.05693474830267203</v>
       </c>
       <c r="H38" t="n">
-        <v>-42.75646677270537</v>
+        <v>-20.64047049077451</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0524457206853457</v>
+        <v>0.0517465224592876</v>
       </c>
       <c r="H39" t="n">
-        <v>21.78975545446547</v>
+        <v>20.16607329597802</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06633427153731296</v>
+        <v>0.0366632694382786</v>
       </c>
       <c r="H40" t="n">
-        <v>48.300062175929</v>
+        <v>-18.0338456839591</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.09111490214836002</v>
+        <v>0.04135257420574639</v>
       </c>
       <c r="H41" t="n">
-        <v>637.2160089312318</v>
+        <v>234.5860994873677</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06007985842396252</v>
+        <v>0.06764819451523282</v>
       </c>
       <c r="H42" t="n">
-        <v>14.92163832333614</v>
+        <v>29.39846309966611</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0605315251399902</v>
+        <v>0.05452164116203569</v>
       </c>
       <c r="H43" t="n">
-        <v>21.3059404650695</v>
+        <v>9.262057110970973</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1008047878330977</v>
+        <v>0.1012030353760831</v>
       </c>
       <c r="H44" t="n">
-        <v>-23.48832998534596</v>
+        <v>-23.18605679725596</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1017472072531099</v>
+        <v>0.1274266593124788</v>
       </c>
       <c r="H45" t="n">
-        <v>-43.29315812890521</v>
+        <v>-28.98121123050538</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.04177109995115467</v>
+        <v>0.006132675932863319</v>
       </c>
       <c r="H46" t="n">
-        <v>4.914067468415594</v>
+        <v>113.9601593128312</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.04047319334807199</v>
+        <v>0.01047536928570888</v>
       </c>
       <c r="H47" t="n">
-        <v>-1445.033839110868</v>
+        <v>499.8893757755305</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.004948056114730009</v>
+        <v>0.00246458396783223</v>
       </c>
       <c r="H48" t="n">
-        <v>-134.1437849572903</v>
+        <v>-82.99327593388851</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01489094951378256</v>
+        <v>-0.02967611047402429</v>
       </c>
       <c r="H49" t="n">
-        <v>367.8797604433791</v>
+        <v>-433.8564446353789</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1255119757279282</v>
+        <v>0.1157397581790674</v>
       </c>
       <c r="H50" t="n">
-        <v>-12.18730544353951</v>
+        <v>-19.02430047752375</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1463968632333001</v>
+        <v>0.1466181406666868</v>
       </c>
       <c r="H51" t="n">
-        <v>11.78301329157617</v>
+        <v>11.95197222779309</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08434940901631864</v>
+        <v>0.07495536970579002</v>
       </c>
       <c r="H52" t="n">
-        <v>36.15129468426858</v>
+        <v>20.98805134493538</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07187163582054601</v>
+        <v>0.06088629347047862</v>
       </c>
       <c r="H53" t="n">
-        <v>17.47257747293467</v>
+        <v>-0.4827183200698279</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1475315042842161</v>
+        <v>-0.1450372028541232</v>
       </c>
       <c r="H54" t="n">
-        <v>-65.19601335629204</v>
+        <v>-62.40305971320817</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1037232182198249</v>
+        <v>-0.07235801179963582</v>
       </c>
       <c r="H55" t="n">
-        <v>0.06107936907795747</v>
+        <v>30.2819395467526</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1257906606580994</v>
+        <v>0.1349768082813206</v>
       </c>
       <c r="H56" t="n">
-        <v>-18.9094111839173</v>
+        <v>-12.98758745057082</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1414749376738706</v>
+        <v>0.1851214489152293</v>
       </c>
       <c r="H57" t="n">
-        <v>1.425833978070754</v>
+        <v>32.71677409562672</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>